--- a/data/output/cluster_metrics_dendrogram.xlsx
+++ b/data/output/cluster_metrics_dendrogram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,178 +472,74 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6120227019420387</v>
+        <v>0.6572707835815297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9445032630468959</v>
+        <v>0.9383790318250099</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02066607325044955</v>
+        <v>-0.06996554077209899</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>coldread_coverage_line_%</t>
+          <t>qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65e-02</t>
+          <t>1.70e-01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>GatesS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5802371631539921</v>
+        <v>0.5215754474682202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9859517656173747</v>
+        <v>0.9462945208793749</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02486062157243496</v>
+        <v>-0.1334434655101405</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qa_dwell_time_pdf</t>
+          <t>qa_dwell_time_quiz</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.02e-01</t>
+          <t>2.76e-01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>GatesT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5557912931301477</v>
+        <v>0.5091764779997477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9813519604643685</v>
+        <v>0.9486087453773209</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03242150451595012</v>
+        <v>-0.1265424323776743</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>qa_dwell_time_quiz</t>
+          <t>qa_dwell_time_pdf</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74e-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Waterclocks</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5798771563911893</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.01117794906634</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.05735097900041848</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>coldread_saccade_regression_rate_%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.68e-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lizards</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5956553498281395</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.196796581465082</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.006889129114421915</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>qa_dwell_time_quiz</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.21e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tastes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6100878433958644</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.089837061252816</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.09419782559759034</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.11e-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lodgepoles</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.540071017751662</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.05785229295596</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.03774828657225655</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>qa_dwell_time_pdf</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.95e-02</t>
+          <t>9.98e-02</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_dendrogram.xlsx
+++ b/data/output/cluster_metrics_dendrogram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Number of Clusters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Cophenetic Correlation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Avg Within-Cluster Variance</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Silhouette Score</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Most Significant Feature (ANOVA)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Feature P-Value</t>
         </is>
@@ -472,22 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6572707835815297</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9383790318250099</v>
+        <v>0.6755879905720963</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06996554077209899</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>qa_saccade_regression_rate_%</t>
-        </is>
+        <v>1.003540763856561</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.004430959909984896</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.70e-01</t>
+          <t>coldread_gaze_wpm_median</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.96e-03</t>
         </is>
       </c>
     </row>
@@ -498,22 +506,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5215754474682202</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9462945208793749</v>
+        <v>0.4875985012353222</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1334434655101405</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>qa_dwell_time_quiz</t>
-        </is>
+        <v>1.040945115505756</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.04852631801480001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76e-01</t>
+          <t>coldread_saccade_regression_rate_%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.10e-01</t>
         </is>
       </c>
     </row>
@@ -524,22 +535,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5091764779997477</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9486087453773209</v>
+        <v>0.4898833885006963</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1265424323776743</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>qa_dwell_time_pdf</t>
-        </is>
+        <v>1.110033313784271</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.05016766550460761</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.98e-02</t>
+          <t>qa_coverage_line_%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.49e-02</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_dendrogram.xlsx
+++ b/data/output/cluster_metrics_dendrogram.xlsx
@@ -486,11 +486,11 @@
         <v>1.003540763856561</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.004430959909984896</v>
+        <v>0.02502539014123054</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>coldread_gaze_wpm_median</t>
+          <t>norm_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -515,11 +515,11 @@
         <v>1.040945115505756</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04852631801480001</v>
+        <v>0.003128925285112487</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>coldread_saccade_regression_rate_%</t>
+          <t>norm_coldread_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -544,11 +544,11 @@
         <v>1.110033313784271</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05016766550460761</v>
+        <v>0.03959755131507949</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>norm_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">

--- a/data/output/cluster_metrics_dendrogram.xlsx
+++ b/data/output/cluster_metrics_dendrogram.xlsx
@@ -480,13 +480,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6755879905720963</v>
+        <v>0.6752876796897646</v>
       </c>
       <c r="D2" t="n">
-        <v>1.003540763856561</v>
+        <v>1.009167506784137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02502539014123054</v>
+        <v>0.02204064037765832</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.96e-03</t>
+          <t>1.79e-02</t>
         </is>
       </c>
     </row>
@@ -509,22 +509,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4875985012353222</v>
+        <v>0.5036067805454411</v>
       </c>
       <c r="D3" t="n">
-        <v>1.040945115505756</v>
+        <v>1.134293978280183</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003128925285112487</v>
+        <v>0.007913767507918164</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>norm_coldread_saccade_regression_rate_%</t>
+          <t>norm_coldread_coverage_line_%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.10e-01</t>
+          <t>9.00e-02</t>
         </is>
       </c>
     </row>
@@ -535,25 +535,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4898833885006963</v>
+        <v>0.4865644270916379</v>
       </c>
       <c r="D4" t="n">
-        <v>1.110033313784271</v>
+        <v>1.046600125451598</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03959755131507949</v>
+        <v>-0.01688470457019641</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>norm_qa_coverage_line_%</t>
+          <t>norm_coldread_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.49e-02</t>
+          <t>3.39e-01</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_dendrogram.xlsx
+++ b/data/output/cluster_metrics_dendrogram.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +486,7 @@
         <v>1.009167506784137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02204064037765832</v>
+        <v>0.0220406403776583</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         <v>1.046600125451598</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01688470457019641</v>
+        <v>-0.01688470457019638</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
